--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -1,37 +1,80 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A79D61-F895-4E53-82B4-D263D4BA4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by ZC) (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
+  </si>
+  <si>
+    <t>Audio duration (s)</t>
+  </si>
+  <si>
+    <t>pluck_cropped_110Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_82.4Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_87.31Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_92.5Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_98Hz_converted.wav</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +89,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,139 +413,119 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="38.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (estimated by ZC) (Hz)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Audio duration (s)</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pluck_cropped_110Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
         <v>110</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>106.53</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>84.16</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.2575</v>
+      <c r="E2">
+        <v>2.2574999999999998</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>82.4</v>
+      </c>
+      <c r="C3">
         <v>167.82</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>123.17</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9743000000000001</v>
+      <c r="E3">
+        <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
         <v>87.31</v>
       </c>
-      <c r="C4" t="n">
-        <v>139.83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.2372</v>
+      <c r="C4">
+        <v>139.83000000000001</v>
+      </c>
+      <c r="D4">
+        <v>96.99</v>
+      </c>
+      <c r="E4">
+        <v>1.2372000000000001</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>92.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>100.68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>70.8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>1.2217</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>pluck_cropped_98Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
-        <v>79.84999999999999</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D6">
         <v>66.22</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.2836</v>
+      <c r="E6">
+        <v>1.2836000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -1,80 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A79D61-F895-4E53-82B4-D263D4BA4116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Filename</t>
-  </si>
-  <si>
-    <t>Frequency (Hz)</t>
-  </si>
-  <si>
-    <t>Frequency (estimated by ZC) (Hz)</t>
-  </si>
-  <si>
-    <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
-  </si>
-  <si>
-    <t>Audio duration (s)</t>
-  </si>
-  <si>
-    <t>pluck_cropped_110Hz_converted.wav</t>
-  </si>
-  <si>
-    <t>pluck_cropped_82.4Hz_converted.wav</t>
-  </si>
-  <si>
-    <t>pluck_cropped_87.31Hz_converted.wav</t>
-  </si>
-  <si>
-    <t>pluck_cropped_92.5Hz_converted.wav</t>
-  </si>
-  <si>
-    <t>pluck_cropped_98Hz_converted.wav</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -89,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -413,119 +420,139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="28.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.109375" customWidth="1"/>
-    <col min="4" max="4" width="38.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency (estimated by ZC) (Hz)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Audio duration (s)</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pluck_cropped_110Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>110</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>106.53</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>84.16</v>
       </c>
-      <c r="E2">
-        <v>2.2574999999999998</v>
+      <c r="E2" t="n">
+        <v>2.2575</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>82.4</v>
-      </c>
-      <c r="C3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pluck_cropped_82.4Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="C3" t="n">
         <v>167.82</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>123.17</v>
       </c>
-      <c r="E3">
-        <v>0.97430000000000005</v>
+      <c r="E3" t="n">
+        <v>0.9743000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pluck_cropped_87.31Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>87.31</v>
       </c>
-      <c r="C4">
-        <v>139.83000000000001</v>
-      </c>
-      <c r="D4">
-        <v>96.99</v>
-      </c>
-      <c r="E4">
-        <v>1.2372000000000001</v>
+      <c r="C4" t="n">
+        <v>139.83</v>
+      </c>
+      <c r="D4" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.2372</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pluck_cropped_92.5Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>92.5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>100.68</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>70.8</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>1.2217</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pluck_cropped_98Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>98</v>
       </c>
-      <c r="C6">
-        <v>79.849999999999994</v>
-      </c>
-      <c r="D6">
+      <c r="C6" t="n">
+        <v>79.84999999999999</v>
+      </c>
+      <c r="D6" t="n">
         <v>66.22</v>
       </c>
-      <c r="E6">
-        <v>1.2836000000000001</v>
+      <c r="E6" t="n">
+        <v>1.2836</v>
       </c>
     </row>
   </sheetData>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Frequency (estimated by ZC + low pass at 500Hz) (Hz)</t>
+          <t>Frequency (estimated by ZC + LPF 500Hz) (Hz)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -1,37 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79140\PycharmProjects\audio_analysis\tables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2A559A-2B59-49A8-9E82-64CF01A181DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Filename</t>
+  </si>
+  <si>
+    <t>Frequency (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by ZC) (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by ZC + LPF 500Hz) (Hz)</t>
+  </si>
+  <si>
+    <t>Frequency (estimated by XOR autocorr) (Hz)</t>
+  </si>
+  <si>
+    <t>Audio duration (s)</t>
+  </si>
+  <si>
+    <t>pluck_cropped_110Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_82.4Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_87.31Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_92.5Hz_converted.wav</t>
+  </si>
+  <si>
+    <t>pluck_cropped_98Hz_converted.wav</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,94 +92,1186 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Frequency</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> estimation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (Hz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>87.31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8AF4-49E0-B975-9DC31B7DDA96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (estimated by ZC) (Hz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>106.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>167.82</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.83000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.849999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8AF4-49E0-B975-9DC31B7DDA96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (estimated by ZC + LPF 500Hz) (Hz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>84.16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>123.17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8AF4-49E0-B975-9DC31B7DDA96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Frequency (estimated by XOR autocorr) (Hz)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>109.16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>96.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8AF4-49E0-B975-9DC31B7DDA96}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="848983760"/>
+        <c:axId val="848984240"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="848983760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848984240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="848984240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="848983760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F694EBD3-ADB5-4287-4237-AA3AE883E84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,142 +1558,137 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="143" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Filename</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (Hz)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (estimated by ZC) (Hz)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Frequency (estimated by ZC + LPF 500Hz) (Hz)</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Audio duration (s)</t>
-        </is>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>pluck_cropped_110Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>110</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>106.53</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>84.16</v>
       </c>
-      <c r="E2" t="n">
-        <v>2.2575</v>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>2.2574999999999998</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>82.40000000000001</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>82.4</v>
+      </c>
+      <c r="C3">
         <v>167.82</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>123.17</v>
       </c>
-      <c r="E3" t="n">
-        <v>0.9743000000000001</v>
+      <c r="E3">
+        <v>109.16</v>
+      </c>
+      <c r="F3">
+        <v>0.97430000000000005</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
         <v>87.31</v>
       </c>
-      <c r="C4" t="n">
-        <v>139.83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>96.98999999999999</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.2372</v>
+      <c r="C4">
+        <v>139.83000000000001</v>
+      </c>
+      <c r="D4">
+        <v>96.99</v>
+      </c>
+      <c r="E4">
+        <v>88.38</v>
+      </c>
+      <c r="F4">
+        <v>1.2372000000000001</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>92.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>100.68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>70.8</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>94.03</v>
+      </c>
+      <c r="F5">
         <v>1.2217</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>pluck_cropped_98Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
-        <v>79.84999999999999</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>79.849999999999994</v>
+      </c>
+      <c r="D6">
         <v>66.22</v>
       </c>
-      <c r="E6" t="n">
-        <v>1.2836</v>
+      <c r="E6">
+        <v>96.71</v>
+      </c>
+      <c r="F6">
+        <v>1.2836000000000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,110 +468,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>pluck_cropped_110Hz_converted.wav</t>
+          <t>artificialplucknoisy_cropped_400Hz_converted.wav</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>106.53</v>
+        <v>7101</v>
       </c>
       <c r="D2" t="n">
-        <v>84.16</v>
+        <v>1130</v>
       </c>
       <c r="E2" t="n">
-        <v>2205</v>
+        <v>400.91</v>
       </c>
       <c r="F2" t="n">
-        <v>2.2575</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
+          <t>artificialpluck_cropped_400Hz_converted.wav</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.40000000000001</v>
+        <v>400</v>
       </c>
       <c r="C3" t="n">
-        <v>167.82</v>
+        <v>609</v>
       </c>
       <c r="D3" t="n">
-        <v>123.17</v>
+        <v>317</v>
       </c>
       <c r="E3" t="n">
-        <v>109.16</v>
+        <v>133.23</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9743000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
+          <t>pluck_cropped_110Hz_converted.wav</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>87.31</v>
+        <v>110</v>
       </c>
       <c r="C4" t="n">
-        <v>139.83</v>
+        <v>106.53</v>
       </c>
       <c r="D4" t="n">
-        <v>96.98999999999999</v>
+        <v>84.16</v>
       </c>
       <c r="E4" t="n">
-        <v>88.38</v>
+        <v>2205</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2372</v>
+        <v>2.2575</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
+          <t>pluck_cropped_82.4Hz_converted.wav</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>100.68</v>
+        <v>167.82</v>
       </c>
       <c r="D5" t="n">
-        <v>70.8</v>
+        <v>123.17</v>
       </c>
       <c r="E5" t="n">
-        <v>94.03</v>
+        <v>109.16</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2217</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>pluck_cropped_87.31Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>87.31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>139.83</v>
+      </c>
+      <c r="D6" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>88.38</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1.2372</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pluck_cropped_92.5Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="D7" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E7" t="n">
+        <v>94.03</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.2217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
           <t>pluck_cropped_98Hz_converted.wav</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B8" t="n">
         <v>98</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C8" t="n">
         <v>79.84999999999999</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D8" t="n">
         <v>66.22</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E8" t="n">
         <v>96.70999999999999</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F8" t="n">
         <v>1.2836</v>
       </c>
     </row>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,20 +490,20 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>artificialpluck_cropped_400Hz_converted.wav</t>
+          <t>artificialplucknoisy_cropped_80Hz_converted.wav</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>609</v>
+        <v>7080</v>
       </c>
       <c r="D3" t="n">
-        <v>317</v>
+        <v>1007.25</v>
       </c>
       <c r="E3" t="n">
-        <v>133.23</v>
+        <v>2205</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -512,110 +512,154 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>pluck_cropped_110Hz_converted.wav</t>
+          <t>artificialpluck_cropped_400Hz_converted.wav</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110</v>
+        <v>400</v>
       </c>
       <c r="C4" t="n">
-        <v>106.53</v>
+        <v>609</v>
       </c>
       <c r="D4" t="n">
-        <v>84.16</v>
+        <v>317</v>
       </c>
       <c r="E4" t="n">
-        <v>2205</v>
+        <v>133.23</v>
       </c>
       <c r="F4" t="n">
-        <v>2.2575</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
+          <t>artificialpluck_cropped_80Hz_converted.wav</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82.40000000000001</v>
+        <v>80</v>
       </c>
       <c r="C5" t="n">
-        <v>167.82</v>
+        <v>88.75</v>
       </c>
       <c r="D5" t="n">
-        <v>123.17</v>
+        <v>88.75</v>
       </c>
       <c r="E5" t="n">
-        <v>109.16</v>
+        <v>2205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9743000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
+          <t>pluck_cropped_110Hz_converted.wav</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87.31</v>
+        <v>110</v>
       </c>
       <c r="C6" t="n">
-        <v>139.83</v>
+        <v>106.53</v>
       </c>
       <c r="D6" t="n">
-        <v>96.98999999999999</v>
+        <v>84.16</v>
       </c>
       <c r="E6" t="n">
-        <v>88.38</v>
+        <v>2205</v>
       </c>
       <c r="F6" t="n">
-        <v>1.2372</v>
+        <v>2.2575</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
+          <t>pluck_cropped_82.4Hz_converted.wav</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>92.5</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>100.68</v>
+        <v>167.82</v>
       </c>
       <c r="D7" t="n">
-        <v>70.8</v>
+        <v>123.17</v>
       </c>
       <c r="E7" t="n">
-        <v>94.03</v>
+        <v>109.16</v>
       </c>
       <c r="F7" t="n">
-        <v>1.2217</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>pluck_cropped_87.31Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>87.31</v>
+      </c>
+      <c r="C8" t="n">
+        <v>139.83</v>
+      </c>
+      <c r="D8" t="n">
+        <v>96.98999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>88.38</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.2372</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pluck_cropped_92.5Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="D9" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>94.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.2217</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>pluck_cropped_98Hz_converted.wav</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B10" t="n">
         <v>98</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C10" t="n">
         <v>79.84999999999999</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D10" t="n">
         <v>66.22</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E10" t="n">
         <v>96.70999999999999</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F10" t="n">
         <v>1.2836</v>
       </c>
     </row>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -497,10 +497,10 @@
         <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>7080</v>
+        <v>8142.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1007.25</v>
+        <v>1337.5</v>
       </c>
       <c r="E3" t="n">
         <v>2205</v>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,10 +497,10 @@
         <v>80</v>
       </c>
       <c r="C3" t="n">
-        <v>8142.5</v>
+        <v>8149.5</v>
       </c>
       <c r="D3" t="n">
-        <v>1337.5</v>
+        <v>1316.75</v>
       </c>
       <c r="E3" t="n">
         <v>2205</v>
@@ -556,110 +556,154 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>pluck_cropped_110Hz_converted.wav</t>
+          <t>pluck_cropped_116.2Hz_converted.wav</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110</v>
+        <v>116.2</v>
       </c>
       <c r="C6" t="n">
-        <v>106.53</v>
+        <v>140.78</v>
       </c>
       <c r="D6" t="n">
-        <v>84.16</v>
+        <v>113.83</v>
       </c>
       <c r="E6" t="n">
-        <v>2205</v>
+        <v>115.75</v>
       </c>
       <c r="F6" t="n">
-        <v>2.2575</v>
+        <v>0.7423</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
+          <t>pluck_cropped_212Hz_converted.wav</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.40000000000001</v>
+        <v>212</v>
       </c>
       <c r="C7" t="n">
-        <v>167.82</v>
+        <v>613.66</v>
       </c>
       <c r="D7" t="n">
-        <v>123.17</v>
+        <v>331.56</v>
       </c>
       <c r="E7" t="n">
-        <v>109.16</v>
+        <v>214.08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9743000000000001</v>
+        <v>0.7887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
+          <t>pluck_cropped_82.4Hz_converted.wav</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.31</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>139.83</v>
+        <v>167.82</v>
       </c>
       <c r="D8" t="n">
-        <v>96.98999999999999</v>
+        <v>123.17</v>
       </c>
       <c r="E8" t="n">
-        <v>88.38</v>
+        <v>109.16</v>
       </c>
       <c r="F8" t="n">
-        <v>1.2372</v>
+        <v>0.9743000000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
+          <t>pluck_cropped_87.31Hz_converted.wav</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.5</v>
+        <v>87.31</v>
       </c>
       <c r="C9" t="n">
-        <v>100.68</v>
+        <v>139.83</v>
       </c>
       <c r="D9" t="n">
-        <v>70.8</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E9" t="n">
-        <v>94.03</v>
+        <v>88.38</v>
       </c>
       <c r="F9" t="n">
-        <v>1.2217</v>
+        <v>1.2372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>pluck_cropped_92.5Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="D10" t="n">
+        <v>70.8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>94.03</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.2217</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pluck_cropped_94.2Hz_converted.wav</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>94.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>184.56</v>
+      </c>
+      <c r="D11" t="n">
+        <v>136.73</v>
+      </c>
+      <c r="E11" t="n">
+        <v>95.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.7423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>pluck_cropped_98Hz_converted.wav</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B12" t="n">
         <v>98</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>79.84999999999999</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D12" t="n">
         <v>66.22</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E12" t="n">
         <v>96.70999999999999</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F12" t="n">
         <v>1.2836</v>
       </c>
     </row>

--- a/tables/zero_crossings_auto_generated_table.xlsx
+++ b/tables/zero_crossings_auto_generated_table.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,110 +600,88 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>pluck_cropped_82.4Hz_converted.wav</t>
+          <t>pluck_cropped_87.31Hz_converted.wav</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>82.40000000000001</v>
+        <v>87.31</v>
       </c>
       <c r="C8" t="n">
-        <v>167.82</v>
+        <v>139.83</v>
       </c>
       <c r="D8" t="n">
-        <v>123.17</v>
+        <v>96.98999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>109.16</v>
+        <v>88.38</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9743000000000001</v>
+        <v>1.2372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>pluck_cropped_87.31Hz_converted.wav</t>
+          <t>pluck_cropped_92.5Hz_converted.wav</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>87.31</v>
+        <v>92.5</v>
       </c>
       <c r="C9" t="n">
-        <v>139.83</v>
+        <v>100.68</v>
       </c>
       <c r="D9" t="n">
-        <v>96.98999999999999</v>
+        <v>70.8</v>
       </c>
       <c r="E9" t="n">
-        <v>88.38</v>
+        <v>94.03</v>
       </c>
       <c r="F9" t="n">
-        <v>1.2372</v>
+        <v>1.2217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>pluck_cropped_92.5Hz_converted.wav</t>
+          <t>pluck_cropped_94.2Hz_converted.wav</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>92.5</v>
+        <v>94.2</v>
       </c>
       <c r="C10" t="n">
-        <v>100.68</v>
+        <v>184.56</v>
       </c>
       <c r="D10" t="n">
-        <v>70.8</v>
+        <v>136.73</v>
       </c>
       <c r="E10" t="n">
-        <v>94.03</v>
+        <v>95.45</v>
       </c>
       <c r="F10" t="n">
-        <v>1.2217</v>
+        <v>0.7423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pluck_cropped_94.2Hz_converted.wav</t>
+          <t>pluck_cropped_98Hz_converted.wav</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>94.2</v>
+        <v>98</v>
       </c>
       <c r="C11" t="n">
-        <v>184.56</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>136.73</v>
+        <v>66.22</v>
       </c>
       <c r="E11" t="n">
-        <v>95.45</v>
+        <v>96.70999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7423</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>pluck_cropped_98Hz_converted.wav</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>98</v>
-      </c>
-      <c r="C12" t="n">
-        <v>79.84999999999999</v>
-      </c>
-      <c r="D12" t="n">
-        <v>66.22</v>
-      </c>
-      <c r="E12" t="n">
-        <v>96.70999999999999</v>
-      </c>
-      <c r="F12" t="n">
         <v>1.2836</v>
       </c>
     </row>
